--- a/data/Variables.xlsx
+++ b/data/Variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\H.U.C.A. LABORATORIO\1. Proyectos Tesis Doctoral\HTT and mental disorders\Draft\Git hub\Github\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\HUCA LABORATORIO\1. Proyectos Tesis Doctoral\Mental disorders\STRs\Draft\Molecular Psychiatric\Mental-disorders-STRs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D23E81-2347-46C9-9856-691A4C7F8747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC94FACF-9A24-404A-95DE-650EB02B2827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{C6AD95FC-2308-4755-B174-A5E7A892C01D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6AD95FC-2308-4755-B174-A5E7A892C01D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
   <si>
-    <t>Variable</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>ONSET_AGE</t>
+  </si>
+  <si>
+    <t>Variables</t>
   </si>
 </sst>
 </file>
@@ -600,9 +600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54E493A-9885-4788-89DD-3D40CA3AEFA5}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -615,359 +613,359 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/Variables.xlsx
+++ b/data/Variables.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\HUCA LABORATORIO\1. Proyectos Tesis Doctoral\Mental disorders\STRs\Draft\Molecular Psychiatric\Mental-disorders-STRs\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\HUCA LABORATORIO\1. Proyectos Tesis Doctoral\04. Mental disorders\STRs\Draft\Molecular Psychiatric\Mental-disorders-STRs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC94FACF-9A24-404A-95DE-650EB02B2827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2839AC-3D54-48EA-8EAD-F4DD40CDCEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6AD95FC-2308-4755-B174-A5E7A892C01D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
   <si>
     <t>Type</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Variables</t>
+  </si>
+  <si>
+    <t>Global cognitive decline</t>
   </si>
 </sst>
 </file>
@@ -598,9 +601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54E493A-9885-4788-89DD-3D40CA3AEFA5}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -883,77 +888,77 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="E19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>13</v>
@@ -962,9 +967,26 @@
         <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/data/Variables.xlsx
+++ b/data/Variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\HUCA LABORATORIO\1. Proyectos Tesis Doctoral\04. Mental disorders\STRs\Draft\Molecular Psychiatric\Mental-disorders-STRs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2839AC-3D54-48EA-8EAD-F4DD40CDCEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FC8D6F-1404-4C24-86A6-1F92BE4BD5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6AD95FC-2308-4755-B174-A5E7A892C01D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{C6AD95FC-2308-4755-B174-A5E7A892C01D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
   <si>
     <t>Type</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Factor</t>
   </si>
   <si>
-    <t>BD (Bipolar Disorder), SCH (Schizophrenia), CONTROL</t>
-  </si>
-  <si>
     <t>Diagnostic group</t>
   </si>
   <si>
@@ -98,18 +95,6 @@
     <t>Repeats</t>
   </si>
   <si>
-    <t>ALLELE1_SCA1</t>
-  </si>
-  <si>
-    <t>ALLELE2_SCA1</t>
-  </si>
-  <si>
-    <t>ALLELE1_SCA2</t>
-  </si>
-  <si>
-    <t>ALLELE2_SCA2</t>
-  </si>
-  <si>
     <t>COFFEE</t>
   </si>
   <si>
@@ -152,18 +137,6 @@
     <t>Number of CAG repeats long allele in HTT gene</t>
   </si>
   <si>
-    <t>Number of repeats short allele in SCA1 gene</t>
-  </si>
-  <si>
-    <t>Number of repeats long allele in SCA1 gene</t>
-  </si>
-  <si>
-    <t>Number of repeats short allele in SCA2 gene</t>
-  </si>
-  <si>
-    <t>Number of repeats long allele in SCA2 gene</t>
-  </si>
-  <si>
     <t>CD</t>
   </si>
   <si>
@@ -173,9 +146,6 @@
     <t>Dichotomized CD variable</t>
   </si>
   <si>
-    <t>BD-1, Other / SCH-P, Other</t>
-  </si>
-  <si>
     <t>ALLELE1_HTT</t>
   </si>
   <si>
@@ -191,12 +161,6 @@
     <t>Normal (0-26); Intermediate (27-35); Expanded (36-)</t>
   </si>
   <si>
-    <t>SCA1_CODE</t>
-  </si>
-  <si>
-    <t>SCA2_CODE</t>
-  </si>
-  <si>
     <t>Normal (0-32); Intermediate (33-38); Expanded (39-)</t>
   </si>
   <si>
@@ -216,6 +180,60 @@
   </si>
   <si>
     <t>Global cognitive decline</t>
+  </si>
+  <si>
+    <t>APOE</t>
+  </si>
+  <si>
+    <t>22/23/24/33/34/44</t>
+  </si>
+  <si>
+    <t>APOE_E4</t>
+  </si>
+  <si>
+    <t>APOE isoforms</t>
+  </si>
+  <si>
+    <t>ALLELE1_ATXN1</t>
+  </si>
+  <si>
+    <t>Number of repeats short allele in ATXN1 gene</t>
+  </si>
+  <si>
+    <t>ALLELE2_ATXN1</t>
+  </si>
+  <si>
+    <t>Number of repeats long allele in ATXN1 gene</t>
+  </si>
+  <si>
+    <t>ATXN1_CODE</t>
+  </si>
+  <si>
+    <t>ALLELE1_ATXN2</t>
+  </si>
+  <si>
+    <t>Number of repeats short allele in ATXN2 gene</t>
+  </si>
+  <si>
+    <t>ALLELE2_ATXN2</t>
+  </si>
+  <si>
+    <t>Number of repeats long allele in ATXN2 gene</t>
+  </si>
+  <si>
+    <t>ATXN2_CODE</t>
+  </si>
+  <si>
+    <t>BD (Bipolar Disorder), SCZ (Schizophrenia), CONTROL</t>
+  </si>
+  <si>
+    <t>BD-1, Other / SCZ-P, Other</t>
+  </si>
+  <si>
+    <t>E4+,E4-</t>
+  </si>
+  <si>
+    <t>E4+: 34/44; E4-: 22/23/24/33</t>
   </si>
 </sst>
 </file>
@@ -601,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54E493A-9885-4788-89DD-3D40CA3AEFA5}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,7 +636,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -641,353 +659,387 @@
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/Variables.xlsx
+++ b/data/Variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergio\Desktop\HUCA LABORATORIO\1. Proyectos Tesis Doctoral\04. Mental disorders\STRs\Draft\Molecular Psychiatric\Mental-disorders-STRs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FC8D6F-1404-4C24-86A6-1F92BE4BD5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A63E63-7485-4BAA-891C-30578FE53C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{C6AD95FC-2308-4755-B174-A5E7A892C01D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6AD95FC-2308-4755-B174-A5E7A892C01D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="69">
   <si>
     <t>Type</t>
   </si>
@@ -234,6 +234,15 @@
   </si>
   <si>
     <t>E4+: 34/44; E4-: 22/23/24/33</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>Internal identifier</t>
   </si>
 </sst>
 </file>
@@ -277,13 +286,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -619,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C54E493A-9885-4788-89DD-3D40CA3AEFA5}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,35 +672,33 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>7</v>
@@ -687,33 +706,33 @@
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
@@ -721,41 +740,41 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
@@ -764,117 +783,117 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
+      <c r="C13" t="s">
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>7</v>
+        <v>64</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
@@ -883,7 +902,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -891,33 +910,33 @@
     </row>
     <row r="16" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
@@ -925,121 +944,138 @@
     </row>
     <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
